--- a/装修/华润半岛九里8-1-302工程排期.xlsx
+++ b/装修/华润半岛九里8-1-302工程排期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -993,7 +993,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1100,12 +1100,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1599,13 +1593,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XEK63"/>
+  <dimension ref="A1:DV62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AW2"/>
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.55" style="1" customWidth="1"/>
@@ -1628,7 +1622,7 @@
     <col min="99" max="110" width="9.3" style="1"/>
     <col min="111" max="119" width="9" style="1"/>
     <col min="120" max="125" width="9.3" style="1"/>
-    <col min="126" max="16365" width="9" style="1"/>
+    <col min="126" max="126" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28.5" customHeight="1" spans="1:49">
@@ -3963,7 +3957,7 @@
       <c r="DU17" s="11"/>
       <c r="DV17" s="11"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="14" customHeight="1" spans="1:130">
+    <row r="18" s="1" customFormat="1" ht="14" customHeight="1" spans="1:126">
       <c r="A18" s="10">
         <v>14</v>
       </c>
@@ -4094,12 +4088,8 @@
       <c r="DT18" s="10"/>
       <c r="DU18" s="10"/>
       <c r="DV18" s="10"/>
-      <c r="DW18" s="36"/>
-      <c r="DX18" s="10"/>
-      <c r="DY18" s="10"/>
-      <c r="DZ18" s="10"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="19" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A19" s="10">
         <v>15</v>
       </c>
@@ -4229,12 +4219,8 @@
       <c r="DT19" s="10"/>
       <c r="DU19" s="10"/>
       <c r="DV19" s="10"/>
-      <c r="DW19" s="10"/>
-      <c r="DX19" s="10"/>
-      <c r="DY19" s="10"/>
-      <c r="DZ19" s="10"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="20" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A20" s="10">
         <v>16</v>
       </c>
@@ -4365,12 +4351,8 @@
       <c r="DT20" s="10"/>
       <c r="DU20" s="10"/>
       <c r="DV20" s="10"/>
-      <c r="DW20" s="10"/>
-      <c r="DX20" s="10"/>
-      <c r="DY20" s="10"/>
-      <c r="DZ20" s="10"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="21" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A21" s="10">
         <v>17</v>
       </c>
@@ -4501,12 +4483,8 @@
       <c r="DT21" s="10"/>
       <c r="DU21" s="10"/>
       <c r="DV21" s="10"/>
-      <c r="DW21" s="10"/>
-      <c r="DX21" s="10"/>
-      <c r="DY21" s="10"/>
-      <c r="DZ21" s="10"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="22" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A22" s="10">
         <v>18</v>
       </c>
@@ -4637,12 +4615,8 @@
       <c r="DT22" s="10"/>
       <c r="DU22" s="10"/>
       <c r="DV22" s="10"/>
-      <c r="DW22" s="10"/>
-      <c r="DX22" s="10"/>
-      <c r="DY22" s="10"/>
-      <c r="DZ22" s="10"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="23" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A23" s="10">
         <v>19</v>
       </c>
@@ -4773,12 +4747,8 @@
       <c r="DT23" s="10"/>
       <c r="DU23" s="10"/>
       <c r="DV23" s="10"/>
-      <c r="DW23" s="10"/>
-      <c r="DX23" s="10"/>
-      <c r="DY23" s="10"/>
-      <c r="DZ23" s="10"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="24" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A24" s="10">
         <v>20</v>
       </c>
@@ -4909,12 +4879,8 @@
       <c r="DT24" s="10"/>
       <c r="DU24" s="10"/>
       <c r="DV24" s="10"/>
-      <c r="DW24" s="10"/>
-      <c r="DX24" s="10"/>
-      <c r="DY24" s="10"/>
-      <c r="DZ24" s="10"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="25" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A25" s="10">
         <v>21</v>
       </c>
@@ -5045,12 +5011,8 @@
       <c r="DT25" s="10"/>
       <c r="DU25" s="10"/>
       <c r="DV25" s="10"/>
-      <c r="DW25" s="10"/>
-      <c r="DX25" s="10"/>
-      <c r="DY25" s="10"/>
-      <c r="DZ25" s="10"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="26" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A26" s="10">
         <v>22</v>
       </c>
@@ -5183,12 +5145,8 @@
       <c r="DT26" s="10"/>
       <c r="DU26" s="10"/>
       <c r="DV26" s="10"/>
-      <c r="DW26" s="10"/>
-      <c r="DX26" s="10"/>
-      <c r="DY26" s="10"/>
-      <c r="DZ26" s="10"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="27" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A27" s="10">
         <v>23</v>
       </c>
@@ -5321,12 +5279,8 @@
       <c r="DT27" s="10"/>
       <c r="DU27" s="10"/>
       <c r="DV27" s="10"/>
-      <c r="DW27" s="10"/>
-      <c r="DX27" s="10"/>
-      <c r="DY27" s="10"/>
-      <c r="DZ27" s="10"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="28" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A28" s="10">
         <v>24</v>
       </c>
@@ -5457,12 +5411,8 @@
       <c r="DT28" s="10"/>
       <c r="DU28" s="10"/>
       <c r="DV28" s="10"/>
-      <c r="DW28" s="10"/>
-      <c r="DX28" s="10"/>
-      <c r="DY28" s="10"/>
-      <c r="DZ28" s="10"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="29" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A29" s="10">
         <v>25</v>
       </c>
@@ -5593,12 +5543,8 @@
       <c r="DT29" s="10"/>
       <c r="DU29" s="10"/>
       <c r="DV29" s="10"/>
-      <c r="DW29" s="10"/>
-      <c r="DX29" s="10"/>
-      <c r="DY29" s="10"/>
-      <c r="DZ29" s="10"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="30" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A30" s="10">
         <v>26</v>
       </c>
@@ -5729,12 +5675,8 @@
       <c r="DT30" s="10"/>
       <c r="DU30" s="10"/>
       <c r="DV30" s="10"/>
-      <c r="DW30" s="10"/>
-      <c r="DX30" s="10"/>
-      <c r="DY30" s="10"/>
-      <c r="DZ30" s="10"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="31" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A31" s="10">
         <v>27</v>
       </c>
@@ -5865,12 +5807,8 @@
       <c r="DT31" s="10"/>
       <c r="DU31" s="10"/>
       <c r="DV31" s="10"/>
-      <c r="DW31" s="10"/>
-      <c r="DX31" s="10"/>
-      <c r="DY31" s="10"/>
-      <c r="DZ31" s="10"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="32" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A32" s="10">
         <v>28</v>
       </c>
@@ -6001,12 +5939,8 @@
       <c r="DT32" s="10"/>
       <c r="DU32" s="10"/>
       <c r="DV32" s="10"/>
-      <c r="DW32" s="10"/>
-      <c r="DX32" s="10"/>
-      <c r="DY32" s="10"/>
-      <c r="DZ32" s="10"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="33" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A33" s="10">
         <v>29</v>
       </c>
@@ -6137,12 +6071,8 @@
       <c r="DT33" s="10"/>
       <c r="DU33" s="10"/>
       <c r="DV33" s="10"/>
-      <c r="DW33" s="10"/>
-      <c r="DX33" s="10"/>
-      <c r="DY33" s="10"/>
-      <c r="DZ33" s="10"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="34" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A34" s="10">
         <v>30</v>
       </c>
@@ -6273,12 +6203,8 @@
       <c r="DT34" s="10"/>
       <c r="DU34" s="10"/>
       <c r="DV34" s="10"/>
-      <c r="DW34" s="10"/>
-      <c r="DX34" s="10"/>
-      <c r="DY34" s="10"/>
-      <c r="DZ34" s="10"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="35" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A35" s="10">
         <v>31</v>
       </c>
@@ -6409,12 +6335,8 @@
       <c r="DT35" s="10"/>
       <c r="DU35" s="10"/>
       <c r="DV35" s="10"/>
-      <c r="DW35" s="10"/>
-      <c r="DX35" s="10"/>
-      <c r="DY35" s="10"/>
-      <c r="DZ35" s="10"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="36" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A36" s="10">
         <v>32</v>
       </c>
@@ -6545,12 +6467,8 @@
       <c r="DT36" s="10"/>
       <c r="DU36" s="10"/>
       <c r="DV36" s="10"/>
-      <c r="DW36" s="10"/>
-      <c r="DX36" s="10"/>
-      <c r="DY36" s="10"/>
-      <c r="DZ36" s="10"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="37" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A37" s="10">
         <v>33</v>
       </c>
@@ -6681,12 +6599,8 @@
       <c r="DT37" s="10"/>
       <c r="DU37" s="10"/>
       <c r="DV37" s="10"/>
-      <c r="DW37" s="10"/>
-      <c r="DX37" s="10"/>
-      <c r="DY37" s="10"/>
-      <c r="DZ37" s="10"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="38" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A38" s="10">
         <v>34</v>
       </c>
@@ -6817,12 +6731,8 @@
       <c r="DT38" s="10"/>
       <c r="DU38" s="10"/>
       <c r="DV38" s="10"/>
-      <c r="DW38" s="10"/>
-      <c r="DX38" s="10"/>
-      <c r="DY38" s="10"/>
-      <c r="DZ38" s="10"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="39" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A39" s="10">
         <v>35</v>
       </c>
@@ -6953,12 +6863,8 @@
       <c r="DT39" s="10"/>
       <c r="DU39" s="10"/>
       <c r="DV39" s="10"/>
-      <c r="DW39" s="10"/>
-      <c r="DX39" s="10"/>
-      <c r="DY39" s="10"/>
-      <c r="DZ39" s="10"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="40" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A40" s="10">
         <v>36</v>
       </c>
@@ -7089,12 +6995,8 @@
       <c r="DT40" s="10"/>
       <c r="DU40" s="10"/>
       <c r="DV40" s="10"/>
-      <c r="DW40" s="10"/>
-      <c r="DX40" s="10"/>
-      <c r="DY40" s="10"/>
-      <c r="DZ40" s="10"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="41" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A41" s="10">
         <v>37</v>
       </c>
@@ -7225,12 +7127,8 @@
       <c r="DT41" s="10"/>
       <c r="DU41" s="10"/>
       <c r="DV41" s="10"/>
-      <c r="DW41" s="10"/>
-      <c r="DX41" s="10"/>
-      <c r="DY41" s="10"/>
-      <c r="DZ41" s="10"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="42" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A42" s="10">
         <v>38</v>
       </c>
@@ -7361,12 +7259,8 @@
       <c r="DT42" s="10"/>
       <c r="DU42" s="10"/>
       <c r="DV42" s="10"/>
-      <c r="DW42" s="10"/>
-      <c r="DX42" s="10"/>
-      <c r="DY42" s="10"/>
-      <c r="DZ42" s="10"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="43" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A43" s="10">
         <v>39</v>
       </c>
@@ -7497,12 +7391,8 @@
       <c r="DT43" s="10"/>
       <c r="DU43" s="10"/>
       <c r="DV43" s="10"/>
-      <c r="DW43" s="10"/>
-      <c r="DX43" s="10"/>
-      <c r="DY43" s="10"/>
-      <c r="DZ43" s="10"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="44" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A44" s="10">
         <v>40</v>
       </c>
@@ -7633,12 +7523,8 @@
       <c r="DT44" s="10"/>
       <c r="DU44" s="10"/>
       <c r="DV44" s="10"/>
-      <c r="DW44" s="10"/>
-      <c r="DX44" s="10"/>
-      <c r="DY44" s="10"/>
-      <c r="DZ44" s="10"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="45" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A45" s="10">
         <v>41</v>
       </c>
@@ -7769,12 +7655,8 @@
       <c r="DT45" s="10"/>
       <c r="DU45" s="10"/>
       <c r="DV45" s="10"/>
-      <c r="DW45" s="10"/>
-      <c r="DX45" s="10"/>
-      <c r="DY45" s="10"/>
-      <c r="DZ45" s="10"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="46" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A46" s="10">
         <v>42</v>
       </c>
@@ -7905,12 +7787,8 @@
       <c r="DT46" s="10"/>
       <c r="DU46" s="10"/>
       <c r="DV46" s="10"/>
-      <c r="DW46" s="10"/>
-      <c r="DX46" s="10"/>
-      <c r="DY46" s="10"/>
-      <c r="DZ46" s="10"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="47" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A47" s="10">
         <v>43</v>
       </c>
@@ -8041,12 +7919,8 @@
       <c r="DT47" s="10"/>
       <c r="DU47" s="10"/>
       <c r="DV47" s="10"/>
-      <c r="DW47" s="10"/>
-      <c r="DX47" s="10"/>
-      <c r="DY47" s="10"/>
-      <c r="DZ47" s="10"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="48" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A48" s="10">
         <v>44</v>
       </c>
@@ -8177,12 +8051,8 @@
       <c r="DT48" s="10"/>
       <c r="DU48" s="10"/>
       <c r="DV48" s="10"/>
-      <c r="DW48" s="10"/>
-      <c r="DX48" s="10"/>
-      <c r="DY48" s="10"/>
-      <c r="DZ48" s="10"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="49" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A49" s="10">
         <v>45</v>
       </c>
@@ -8313,12 +8183,8 @@
       <c r="DT49" s="10"/>
       <c r="DU49" s="10"/>
       <c r="DV49" s="10"/>
-      <c r="DW49" s="10"/>
-      <c r="DX49" s="10"/>
-      <c r="DY49" s="10"/>
-      <c r="DZ49" s="10"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="50" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A50" s="10">
         <v>46</v>
       </c>
@@ -8449,12 +8315,8 @@
       <c r="DT50" s="10"/>
       <c r="DU50" s="10"/>
       <c r="DV50" s="10"/>
-      <c r="DW50" s="10"/>
-      <c r="DX50" s="10"/>
-      <c r="DY50" s="10"/>
-      <c r="DZ50" s="10"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="51" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A51" s="10">
         <v>47</v>
       </c>
@@ -8585,12 +8447,8 @@
       <c r="DT51" s="10"/>
       <c r="DU51" s="10"/>
       <c r="DV51" s="10"/>
-      <c r="DW51" s="10"/>
-      <c r="DX51" s="10"/>
-      <c r="DY51" s="10"/>
-      <c r="DZ51" s="10"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="52" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A52" s="10">
         <v>48</v>
       </c>
@@ -8721,12 +8579,8 @@
       <c r="DT52" s="10"/>
       <c r="DU52" s="10"/>
       <c r="DV52" s="10"/>
-      <c r="DW52" s="10"/>
-      <c r="DX52" s="10"/>
-      <c r="DY52" s="10"/>
-      <c r="DZ52" s="10"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="53" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A53" s="10">
         <v>49</v>
       </c>
@@ -8857,12 +8711,8 @@
       <c r="DT53" s="10"/>
       <c r="DU53" s="10"/>
       <c r="DV53" s="10"/>
-      <c r="DW53" s="10"/>
-      <c r="DX53" s="10"/>
-      <c r="DY53" s="10"/>
-      <c r="DZ53" s="10"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="54" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A54" s="10">
         <v>50</v>
       </c>
@@ -8993,12 +8843,8 @@
       <c r="DT54" s="10"/>
       <c r="DU54" s="10"/>
       <c r="DV54" s="10"/>
-      <c r="DW54" s="10"/>
-      <c r="DX54" s="10"/>
-      <c r="DY54" s="10"/>
-      <c r="DZ54" s="10"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="55" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A55" s="10">
         <v>51</v>
       </c>
@@ -9129,12 +8975,8 @@
       <c r="DT55" s="10"/>
       <c r="DU55" s="10"/>
       <c r="DV55" s="10"/>
-      <c r="DW55" s="10"/>
-      <c r="DX55" s="10"/>
-      <c r="DY55" s="10"/>
-      <c r="DZ55" s="10"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:129">
+    <row r="56" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A56" s="10">
         <v>52</v>
       </c>
@@ -9262,14 +9104,11 @@
       <c r="DQ56" s="27"/>
       <c r="DR56" s="27"/>
       <c r="DS56" s="27"/>
-      <c r="DT56" s="37"/>
+      <c r="DT56" s="10"/>
       <c r="DU56" s="10"/>
       <c r="DV56" s="21"/>
-      <c r="DW56" s="21"/>
-      <c r="DX56" s="10"/>
-      <c r="DY56" s="10"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:129">
+    <row r="57" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A57" s="10">
         <v>53</v>
       </c>
@@ -9398,13 +9237,10 @@
       <c r="DR57" s="10"/>
       <c r="DS57" s="10"/>
       <c r="DT57" s="27"/>
-      <c r="DU57" s="37"/>
+      <c r="DU57" s="10"/>
       <c r="DV57" s="21"/>
-      <c r="DW57" s="10"/>
-      <c r="DX57" s="10"/>
-      <c r="DY57" s="10"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="58" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A58" s="10">
         <v>54</v>
       </c>
@@ -9534,13 +9370,9 @@
       <c r="DS58" s="10"/>
       <c r="DT58" s="10"/>
       <c r="DU58" s="10"/>
-      <c r="DV58" s="38"/>
-      <c r="DW58" s="38"/>
-      <c r="DX58" s="38"/>
-      <c r="DY58" s="38"/>
-      <c r="DZ58" s="38"/>
+      <c r="DV58" s="36"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="59" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A59" s="10">
         <v>55</v>
       </c>
@@ -9670,13 +9502,9 @@
       <c r="DS59" s="10"/>
       <c r="DT59" s="10"/>
       <c r="DU59" s="10"/>
-      <c r="DV59" s="38"/>
-      <c r="DW59" s="38"/>
-      <c r="DX59" s="38"/>
-      <c r="DY59" s="38"/>
-      <c r="DZ59" s="38"/>
+      <c r="DV59" s="36"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:130">
+    <row r="60" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:126">
       <c r="A60" s="10">
         <v>56</v>
       </c>
@@ -9806,11 +9634,7 @@
       <c r="DS60" s="10"/>
       <c r="DT60" s="10"/>
       <c r="DU60" s="10"/>
-      <c r="DV60" s="38"/>
-      <c r="DW60" s="38"/>
-      <c r="DX60" s="38"/>
-      <c r="DY60" s="38"/>
-      <c r="DZ60" s="38"/>
+      <c r="DV60" s="36"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:98">
       <c r="A61" s="22" t="s">
@@ -9964,18 +9788,6 @@
       <c r="AU62" s="22"/>
       <c r="AV62" s="22"/>
     </row>
-    <row r="63" spans="16356:16365">
-      <c r="XEB63"/>
-      <c r="XEC63"/>
-      <c r="XED63"/>
-      <c r="XEE63"/>
-      <c r="XEF63"/>
-      <c r="XEG63"/>
-      <c r="XEH63"/>
-      <c r="XEI63"/>
-      <c r="XEJ63"/>
-      <c r="XEK63"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A1:AW1"/>
@@ -10007,7 +9819,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -10024,7 +9836,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
